--- a/animes.xlsx
+++ b/animes.xlsx
@@ -458,17 +458,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>"Oshi no Ko"</t>
+          <t>Fullmetal Alchemist: Brotherhood</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://myanimelist.net/anime/52034/Oshi_no_Ko</t>
+          <t>https://myanimelist.net/anime/5114/Fullmetal_Alchemist__Brotherhood</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>9.12</t>
+          <t>9.10</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -476,17 +476,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fullmetal Alchemist: Brotherhood</t>
+          <t>"Oshi no Ko"</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://myanimelist.net/anime/5114/Fullmetal_Alchemist__Brotherhood</t>
+          <t>https://myanimelist.net/anime/52034/Oshi_no_Ko</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>9.10</t>
+          <t>9.08</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -494,12 +494,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bleach: Sennen Kessen-hen</t>
+          <t>Shingeki no Kyojin: The Final Season - Kanketsu-hen</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://myanimelist.net/anime/41467/Bleach__Sennen_Kessen-hen</t>
+          <t>https://myanimelist.net/anime/51535/Shingeki_no_Kyojin__The_Final_Season_-_Kanketsu-hen</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -512,12 +512,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Shingeki no Kyojin: The Final Season - Kanketsu-hen</t>
+          <t>Steins;Gate</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://myanimelist.net/anime/51535/Shingeki_no_Kyojin__The_Final_Season_-_Kanketsu-hen</t>
+          <t>https://myanimelist.net/anime/9253/Steins_Gate</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -530,17 +530,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Steins;Gate</t>
+          <t>Bleach: Sennen Kessen-hen</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://myanimelist.net/anime/9253/Steins_Gate</t>
+          <t>https://myanimelist.net/anime/41467/Bleach__Sennen_Kessen-hen</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>9.08</t>
+          <t>9.07</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -818,17 +818,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Kaguya-sama wa Kokurasetai: First Kiss wa Owaranai</t>
+          <t>Code Geass: Hangyaku no Lelouch R2</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://myanimelist.net/anime/52198/Kaguya-sama_wa_Kokurasetai__First_Kiss_wa_Owaranai</t>
+          <t>https://myanimelist.net/anime/2904/Code_Geass__Hangyaku_no_Lelouch_R2</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>8.92</t>
+          <t>8.91</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -836,12 +836,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Code Geass: Hangyaku no Lelouch R2</t>
+          <t>Kaguya-sama wa Kokurasetai: First Kiss wa Owaranai</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://myanimelist.net/anime/2904/Code_Geass__Hangyaku_no_Lelouch_R2</t>
+          <t>https://myanimelist.net/anime/52198/Kaguya-sama_wa_Kokurasetai__First_Kiss_wa_Owaranai</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -980,12 +980,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Kimetsu no Yaiba: Yuukaku-hen</t>
+          <t>Kingdom 3rd Season</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://myanimelist.net/anime/47778/Kimetsu_no_Yaiba__Yuukaku-hen</t>
+          <t>https://myanimelist.net/anime/40682/Kingdom_3rd_Season</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -998,17 +998,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Kingdom 3rd Season</t>
+          <t>Kimetsu no Yaiba: Yuukaku-hen</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://myanimelist.net/anime/40682/Kingdom_3rd_Season</t>
+          <t>https://myanimelist.net/anime/47778/Kimetsu_no_Yaiba__Yuukaku-hen</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>8.81</t>
+          <t>8.80</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
@@ -1214,17 +1214,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Mob Psycho 100 III</t>
+          <t>Vinland Saga</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://myanimelist.net/anime/50172/Mob_Psycho_100_III</t>
+          <t>https://myanimelist.net/anime/37521/Vinland_Saga</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>8.73</t>
+          <t>8.74</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
@@ -1232,12 +1232,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Mushishi Zoku Shou 2nd Season</t>
+          <t>Mob Psycho 100 III</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://myanimelist.net/anime/24701/Mushishi_Zoku_Shou_2nd_Season</t>
+          <t>https://myanimelist.net/anime/50172/Mob_Psycho_100_III</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1250,12 +1250,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Shouwa Genroku Rakugo Shinjuu: Sukeroku Futatabi-hen</t>
+          <t>Mushishi Zoku Shou 2nd Season</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://myanimelist.net/anime/33095/Shouwa_Genroku_Rakugo_Shinjuu__Sukeroku_Futatabi-hen</t>
+          <t>https://myanimelist.net/anime/24701/Mushishi_Zoku_Shou_2nd_Season</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1268,12 +1268,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Vinland Saga</t>
+          <t>Shouwa Genroku Rakugo Shinjuu: Sukeroku Futatabi-hen</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://myanimelist.net/anime/37521/Vinland_Saga</t>
+          <t>https://myanimelist.net/anime/33095/Shouwa_Genroku_Rakugo_Shinjuu__Sukeroku_Futatabi-hen</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
